--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/03 Plantilla Historias Usuario con instructivo.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/03 Plantilla Historias Usuario con instructivo.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="27vGAxlMgen9fQIKrlTiLWAvDaDyplcPuiAkVeQ7fVI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="q4NAHSdFdI7EP6cbqa8RVxbYgJTlHciq643UsSq/bG8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>Desarrollo ágil: Historias de usuario y criterios de aceptación</t>
   </si>
@@ -243,6 +243,51 @@
     <t>Usuario</t>
   </si>
   <si>
+    <t>Al ingresar como usuario o bombero no debe a ver errores</t>
+  </si>
+  <si>
+    <t>Para asegurar un acceso correcto antes de iniciar sesión</t>
+  </si>
+  <si>
+    <t>Validación de campos vacíos</t>
+  </si>
+  <si>
+    <t>El usuario deja campos vacíos</t>
+  </si>
+  <si>
+    <t>Intentar ingresar</t>
+  </si>
+  <si>
+    <t>Se muestran mensajes de error indicando los campos obligatorios</t>
+  </si>
+  <si>
+    <t>Validación de formato</t>
+  </si>
+  <si>
+    <t>Correo con formato inválido</t>
+  </si>
+  <si>
+    <t>Confirmar ingreso</t>
+  </si>
+  <si>
+    <t>Se muestra advertencia indicando formato incorrecto</t>
+  </si>
+  <si>
+    <t>Campo no existente</t>
+  </si>
+  <si>
+    <t>Campos escritos incorrectamente o inexistentes</t>
+  </si>
+  <si>
+    <t>Procesar ingreso</t>
+  </si>
+  <si>
+    <t>El sistema indica que el dato ingresado no coincide con ningún registro</t>
+  </si>
+  <si>
+    <t>HU-7</t>
+  </si>
+  <si>
     <t>Autenticarse e iniciar sesión según su rol (residente o bombero)</t>
   </si>
   <si>
@@ -270,43 +315,43 @@
     <t>Intentar iniciar sesión</t>
   </si>
   <si>
-    <t>HU-7</t>
-  </si>
-  <si>
-    <t>Descargar información de su comuna y acceder sin conexión</t>
-  </si>
-  <si>
-    <t>Para trabajar en zonas sin conectividad</t>
-  </si>
-  <si>
-    <t>Descarga de datos</t>
-  </si>
-  <si>
-    <t>Conectividad estable</t>
-  </si>
-  <si>
-    <t>Solicitar descarga</t>
-  </si>
-  <si>
-    <t>Se descarga información local cifrada</t>
-  </si>
-  <si>
-    <t>Sincronización automática</t>
-  </si>
-  <si>
-    <t>Retorno de conexión</t>
-  </si>
-  <si>
-    <t>Detectar reconexión</t>
-  </si>
-  <si>
-    <t>Se sincronizan datos locales con el servidor</t>
-  </si>
-  <si>
     <t>HU-8</t>
   </si>
   <si>
     <t>Sistema</t>
+  </si>
+  <si>
+    <t>Como bombero admin se debe gestionar (modificar) la informacion de las apps de bomberos y de residentes</t>
+  </si>
+  <si>
+    <t>Para mantener actualizada la información y permitir cambios rápidos</t>
+  </si>
+  <si>
+    <t>Modificación exitosa</t>
+  </si>
+  <si>
+    <t>La información se actualiza correctamente en la base de datos</t>
+  </si>
+  <si>
+    <t>Faltan campos requeridos</t>
+  </si>
+  <si>
+    <t>El sistema muestra los campos faltantes</t>
+  </si>
+  <si>
+    <t>Control de permisos</t>
+  </si>
+  <si>
+    <t>Usuario sin rol administrador</t>
+  </si>
+  <si>
+    <t>Intentar modificar datos</t>
+  </si>
+  <si>
+    <t>El sistema bloquea la acción y muestra mensaje de "Permiso denegado"</t>
+  </si>
+  <si>
+    <t>HU-9</t>
   </si>
   <si>
     <t>Asignar automáticamente la comuna a partir de coordenadas (latitud/longitud)</t>
@@ -337,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -367,12 +412,6 @@
       <name val="Calibri"/>
     </font>
     <font/>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -400,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border/>
     <border>
       <left/>
@@ -492,20 +531,11 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -523,8 +553,8 @@
     <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -544,9 +574,14 @@
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -775,7 +810,7 @@
     <col customWidth="1" min="7" max="7" width="26.14"/>
     <col customWidth="1" min="8" max="8" width="42.43"/>
     <col customWidth="1" min="9" max="9" width="28.14"/>
-    <col customWidth="1" min="10" max="10" width="38.43"/>
+    <col customWidth="1" min="10" max="10" width="43.14"/>
     <col customWidth="1" min="11" max="11" width="3.14"/>
     <col customWidth="1" min="12" max="26" width="11.43"/>
   </cols>
@@ -946,7 +981,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" ht="49.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -994,7 +1029,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="54.0" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1034,7 +1069,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="50.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1100,7 +1135,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="15.0" customHeight="1">
+    <row r="10" ht="39.0" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
         <v>31</v>
@@ -1146,7 +1181,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="41.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1184,9 +1219,9 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="36.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1250,7 +1285,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="15.0" customHeight="1">
+    <row r="14" ht="27.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
         <v>45</v>
@@ -1296,9 +1331,9 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1337,9 +1372,9 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -1362,7 +1397,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="30.0" customHeight="1">
+    <row r="17" ht="39.0" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
         <v>51</v>
@@ -1408,9 +1443,9 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="35.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1449,9 +1484,9 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -1474,7 +1509,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="35.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="10" t="s">
         <v>63</v>
@@ -1520,9 +1555,9 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="32.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1561,9 +1596,9 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -1586,7 +1621,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="38.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
         <v>73</v>
@@ -1594,25 +1629,25 @@
       <c r="C23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="11">
         <v>1.0</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="20" t="s">
         <v>80</v>
       </c>
       <c r="K23" s="1"/>
@@ -1632,26 +1667,26 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" ht="37.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="11">
         <v>2.0</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>40</v>
+      <c r="J24" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1670,17 +1705,27 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" ht="41.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1700,33 +1745,15 @@
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>90</v>
-      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1744,26 +1771,34 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" ht="34.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F27" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1782,17 +1817,27 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" ht="36.0" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1810,35 +1855,17 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" ht="17.25" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1856,25 +1883,33 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" ht="46.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="11">
-        <v>2.0</v>
+      <c r="B30" s="19" t="s">
+        <v>99</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="C30" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="F30" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>24</v>
+      <c r="H30" s="20" t="s">
+        <v>18</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="I30" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>104</v>
       </c>
       <c r="K30" s="1"/>
@@ -1894,17 +1929,27 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" ht="37.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1922,17 +1967,27 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" ht="50.25" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1952,15 +2007,15 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1978,17 +2033,35 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" ht="36.0" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="B34" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2006,17 +2079,27 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" ht="38.25" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -28942,57 +29025,29 @@
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="3"/>
-      <c r="G997" s="3"/>
-      <c r="H997" s="3"/>
-      <c r="I997" s="3"/>
-      <c r="J997" s="3"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
-      <c r="P997" s="1"/>
-      <c r="Q997" s="1"/>
-      <c r="R997" s="1"/>
-      <c r="S997" s="1"/>
-      <c r="T997" s="1"/>
-      <c r="U997" s="1"/>
-      <c r="V997" s="1"/>
-      <c r="W997" s="1"/>
-      <c r="X997" s="1"/>
-      <c r="Y997" s="1"/>
-      <c r="Z997" s="1"/>
+    <row r="997">
+      <c r="F997" s="21"/>
+      <c r="G997" s="21"/>
+      <c r="H997" s="21"/>
+      <c r="I997" s="21"/>
+      <c r="J997" s="21"/>
     </row>
     <row r="998">
-      <c r="F998" s="20"/>
-      <c r="G998" s="20"/>
-      <c r="H998" s="20"/>
-      <c r="I998" s="20"/>
-      <c r="J998" s="20"/>
+      <c r="F998" s="21"/>
+      <c r="G998" s="21"/>
+      <c r="H998" s="21"/>
+      <c r="I998" s="21"/>
+      <c r="J998" s="21"/>
     </row>
     <row r="999">
-      <c r="F999" s="20"/>
-      <c r="G999" s="20"/>
-      <c r="H999" s="20"/>
-      <c r="I999" s="20"/>
-      <c r="J999" s="20"/>
-    </row>
-    <row r="1000">
-      <c r="F1000" s="20"/>
-      <c r="G1000" s="20"/>
-      <c r="H1000" s="20"/>
-      <c r="I1000" s="20"/>
-      <c r="J1000" s="20"/>
+      <c r="F999" s="21"/>
+      <c r="G999" s="21"/>
+      <c r="H999" s="21"/>
+      <c r="I999" s="21"/>
+      <c r="J999" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="38">
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="B6:B8"/>
@@ -29009,24 +29064,28 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E23:E25"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921"/>
